--- a/tablas_sistema.xlsx
+++ b/tablas_sistema.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dtax\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B331111-03EA-46DE-87B6-F2B8219A759F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="-15" windowWidth="11910" windowHeight="10740" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empresas" sheetId="1" r:id="rId1"/>
@@ -1220,7 +1226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1928,10 +1934,11 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -1948,7 +1955,6 @@
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -1958,6 +1964,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2006,7 +2015,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2039,9 +2048,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2074,6 +2100,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2249,11 +2292,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2440,7 @@
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>265</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2427,7 +2470,7 @@
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>266</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2453,7 +2496,7 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>267</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -2587,7 +2630,7 @@
       <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>272</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2799,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3298,7 +3341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3822,7 +3865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4065,7 +4108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -4836,7 +4879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5326,7 +5369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5766,7 +5809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -6542,7 +6585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -7042,10 +7085,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+    <sheetView topLeftCell="D18" workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -8179,7 +8222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8543,7 +8586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9325,7 +9368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9803,7 +9846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10355,7 +10398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10938,7 +10981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -12698,7 +12741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/tablas_sistema.xlsx
+++ b/tablas_sistema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dtax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326BEB34-C93C-4F8C-95DA-2AC504846CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09351153-94F5-4691-A1E6-88F07929C05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empresas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="503">
   <si>
     <t>Structure for</t>
   </si>
@@ -1240,13 +1240,319 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Ingresos Excentos</t>
+  </si>
+  <si>
+    <t>Deduccion Impuesto Local</t>
+  </si>
+  <si>
+    <t>Deducciones de Inversiones</t>
+  </si>
+  <si>
+    <t>Parte I</t>
+  </si>
+  <si>
+    <t>Parte II</t>
+  </si>
+  <si>
+    <t>Ded. Adicional Fomento 1er. Empleo</t>
+  </si>
+  <si>
+    <t>Otras Cantidades a cargo del contribuyente</t>
+  </si>
+  <si>
+    <t>Otras Cantidades a favor del contribuyente</t>
+  </si>
+  <si>
+    <t>IEPS acreditable</t>
+  </si>
+  <si>
+    <t>IDE efectivamente pagado</t>
+  </si>
+  <si>
+    <t>ISR pagado en Exceso</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>estatus</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>Retención ISR</t>
+  </si>
+  <si>
+    <t>Retención IVA</t>
+  </si>
+  <si>
+    <t>Nomina</t>
+  </si>
+  <si>
+    <t>Hosedaje</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Credito al Salario</t>
+  </si>
+  <si>
+    <t>Subsidio al Empleo ejercicios Anteriores</t>
+  </si>
+  <si>
+    <t>Compras y/o gastos 16%</t>
+  </si>
+  <si>
+    <t>Compras y/o gastos 11%</t>
+  </si>
+  <si>
+    <t>Compras y/o gastos estimulos RFN 8%</t>
+  </si>
+  <si>
+    <t>Pagos por importacion al 16%</t>
+  </si>
+  <si>
+    <t>Pagos por importacion al 11%</t>
+  </si>
+  <si>
+    <t>Pagos por importacion al 15%</t>
+  </si>
+  <si>
+    <t>Pagos por importacion al 10%</t>
+  </si>
+  <si>
+    <t>Compras y/o gastos 0%</t>
+  </si>
+  <si>
+    <t>Retension a 3eros. Pendiente de pagar</t>
+  </si>
+  <si>
+    <t>Retension a 3eros. Pagado en periodo</t>
+  </si>
+  <si>
+    <t>IVA Servicios Profesionales</t>
+  </si>
+  <si>
+    <t>IVA Arrendamiento</t>
+  </si>
+  <si>
+    <t>IVA Transporte</t>
+  </si>
+  <si>
+    <t>IVA Comisiones</t>
+  </si>
+  <si>
+    <t>Retencion ISR</t>
+  </si>
+  <si>
+    <t>Retencion IVA</t>
+  </si>
+  <si>
+    <t>ISR Asimilables</t>
+  </si>
+  <si>
+    <t>10% Servicios Profesionales</t>
+  </si>
+  <si>
+    <t>10% Arrendamiento</t>
+  </si>
+  <si>
+    <t>ISS Impuesto sobre Salario</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Sueldos y Salarios</t>
+  </si>
+  <si>
+    <t>Asimilables a Salarios</t>
+  </si>
+  <si>
+    <t>Otrios conceptos</t>
+  </si>
+  <si>
+    <t>Imp. s/ Nomina</t>
+  </si>
+  <si>
+    <t>Imp. s/ Hospedaje</t>
+  </si>
+  <si>
+    <t>Base Gravable</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1449,8 +1755,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1678,8 +1992,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1822,6 +2178,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1867,7 +2243,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1931,6 +2307,47 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1978,6 +2395,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5355,7 +5779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -7069,13 +7493,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046B3F70-AF4F-4F89-A5C8-9E1487C489FC}">
-  <dimension ref="A2:S54"/>
+  <dimension ref="A2:AP54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AA28" workbookViewId="0">
+      <selection activeCell="AL39" sqref="AL39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>396</v>
       </c>
@@ -7132,7 +7558,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -7166,8 +7592,11 @@
       <c r="S3" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -7201,8 +7630,33 @@
       <c r="S4" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z4" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -7236,8 +7690,33 @@
       <c r="S5" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z5" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -7271,8 +7750,33 @@
       <c r="S6" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z6" s="41" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="40" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -7306,8 +7810,33 @@
       <c r="S7" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z7" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -7341,8 +7870,33 @@
       <c r="S8" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z8" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -7376,8 +7930,33 @@
       <c r="S9" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z9" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -7411,8 +7990,17 @@
       <c r="S10" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -7446,8 +8034,11 @@
       <c r="S11" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -7481,8 +8072,17 @@
       <c r="S12" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -7516,8 +8116,17 @@
       <c r="S13" s="14">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -7551,8 +8160,17 @@
       <c r="S14" s="14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -7586,8 +8204,14 @@
       <c r="S15" s="14">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>4</v>
+      </c>
+      <c r="V15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -7609,8 +8233,14 @@
       <c r="S16" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="V16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -7632,8 +8262,14 @@
       <c r="S17" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <v>6</v>
+      </c>
+      <c r="V17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>16</v>
       </c>
@@ -7655,8 +8291,29 @@
       <c r="S18" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="V18" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK18" s="37">
+        <v>6</v>
+      </c>
+      <c r="AL18" s="37">
+        <v>7</v>
+      </c>
+      <c r="AM18" s="37">
+        <v>8</v>
+      </c>
+      <c r="AN18" s="37">
+        <v>9</v>
+      </c>
+      <c r="AO18" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>17</v>
       </c>
@@ -7678,8 +8335,72 @@
       <c r="S19" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U19" s="37">
+        <v>0</v>
+      </c>
+      <c r="V19" s="37">
+        <v>1</v>
+      </c>
+      <c r="W19" s="37">
+        <v>2</v>
+      </c>
+      <c r="X19" s="37">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="37">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="37">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="37">
+        <v>6</v>
+      </c>
+      <c r="AB19" s="37">
+        <v>7</v>
+      </c>
+      <c r="AC19" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD19" s="37">
+        <v>9</v>
+      </c>
+      <c r="AE19" s="37">
+        <v>10</v>
+      </c>
+      <c r="AF19" s="37">
+        <v>11</v>
+      </c>
+      <c r="AG19" s="37">
+        <v>12</v>
+      </c>
+      <c r="AH19" s="37">
+        <v>13</v>
+      </c>
+      <c r="AI19" s="37">
+        <v>14</v>
+      </c>
+      <c r="AJ19" s="37">
+        <v>15</v>
+      </c>
+      <c r="AK19" s="37">
+        <v>16</v>
+      </c>
+      <c r="AL19" s="37">
+        <v>17</v>
+      </c>
+      <c r="AM19" s="37">
+        <v>18</v>
+      </c>
+      <c r="AN19" s="37">
+        <v>19</v>
+      </c>
+      <c r="AO19" s="43">
+        <v>20</v>
+      </c>
+      <c r="AP19" s="37"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -7701,8 +8422,75 @@
       <c r="S20" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>290</v>
+      </c>
+      <c r="U20" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="V20" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="W20" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="X20" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y20" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z20" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA20" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB20" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC20" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD20" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE20" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="AF20" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG20" s="39" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH20" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="AI20" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ20" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="AK20" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL20" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM20" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN20" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="AO20" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="AP20" s="39"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>19</v>
       </c>
@@ -7724,8 +8512,75 @@
       <c r="S21" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>297</v>
+      </c>
+      <c r="U21" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="V21" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="W21" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="X21" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y21" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z21" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA21" s="35">
+        <v>6</v>
+      </c>
+      <c r="AB21" s="35">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="35">
+        <v>8</v>
+      </c>
+      <c r="AD21" s="35">
+        <v>9</v>
+      </c>
+      <c r="AE21" s="35">
+        <v>10</v>
+      </c>
+      <c r="AF21" s="35">
+        <v>11</v>
+      </c>
+      <c r="AG21" s="35">
+        <v>12</v>
+      </c>
+      <c r="AH21" s="35">
+        <v>13</v>
+      </c>
+      <c r="AI21" s="35">
+        <v>14</v>
+      </c>
+      <c r="AJ21" s="35">
+        <v>15</v>
+      </c>
+      <c r="AK21" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="14">
+        <v>2024</v>
+      </c>
+      <c r="AM21" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="14"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>20</v>
       </c>
@@ -7747,8 +8602,75 @@
       <c r="S22" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>298</v>
+      </c>
+      <c r="U22" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="V22" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="W22" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="X22" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y22" s="36">
+        <v>14</v>
+      </c>
+      <c r="Z22" s="36">
+        <v>15</v>
+      </c>
+      <c r="AA22" s="35">
+        <v>16</v>
+      </c>
+      <c r="AB22" s="35">
+        <v>17</v>
+      </c>
+      <c r="AC22" s="35">
+        <v>18</v>
+      </c>
+      <c r="AD22" s="35">
+        <v>19</v>
+      </c>
+      <c r="AE22" s="35">
+        <v>110</v>
+      </c>
+      <c r="AF22" s="35">
+        <v>111</v>
+      </c>
+      <c r="AG22" s="35">
+        <v>112</v>
+      </c>
+      <c r="AH22" s="35">
+        <v>113</v>
+      </c>
+      <c r="AI22" s="35">
+        <v>114</v>
+      </c>
+      <c r="AJ22" s="35">
+        <v>115</v>
+      </c>
+      <c r="AK22" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="14">
+        <v>2024</v>
+      </c>
+      <c r="AM22" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN22" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="14"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>21</v>
       </c>
@@ -7770,8 +8692,75 @@
       <c r="S23" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>299</v>
+      </c>
+      <c r="U23" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="V23" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="W23" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="X23" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y23" s="36">
+        <v>24</v>
+      </c>
+      <c r="Z23" s="36">
+        <v>25</v>
+      </c>
+      <c r="AA23" s="35">
+        <v>26</v>
+      </c>
+      <c r="AB23" s="35">
+        <v>27</v>
+      </c>
+      <c r="AC23" s="35">
+        <v>28</v>
+      </c>
+      <c r="AD23" s="35">
+        <v>29</v>
+      </c>
+      <c r="AE23" s="35">
+        <v>210</v>
+      </c>
+      <c r="AF23" s="35">
+        <v>211</v>
+      </c>
+      <c r="AG23" s="35">
+        <v>212</v>
+      </c>
+      <c r="AH23" s="35">
+        <v>213</v>
+      </c>
+      <c r="AI23" s="35">
+        <v>214</v>
+      </c>
+      <c r="AJ23" s="35">
+        <v>215</v>
+      </c>
+      <c r="AK23" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="14">
+        <v>2024</v>
+      </c>
+      <c r="AM23" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN23" s="14">
+        <v>3</v>
+      </c>
+      <c r="AO23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="14"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>22</v>
       </c>
@@ -7793,8 +8782,75 @@
       <c r="S24" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>300</v>
+      </c>
+      <c r="U24" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="V24" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="W24" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="X24" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y24" s="36">
+        <v>34</v>
+      </c>
+      <c r="Z24" s="36">
+        <v>35</v>
+      </c>
+      <c r="AA24" s="35">
+        <v>36</v>
+      </c>
+      <c r="AB24" s="35">
+        <v>37</v>
+      </c>
+      <c r="AC24" s="35">
+        <v>38</v>
+      </c>
+      <c r="AD24" s="35">
+        <v>39</v>
+      </c>
+      <c r="AE24" s="35">
+        <v>310</v>
+      </c>
+      <c r="AF24" s="35">
+        <v>311</v>
+      </c>
+      <c r="AG24" s="35">
+        <v>312</v>
+      </c>
+      <c r="AH24" s="35">
+        <v>313</v>
+      </c>
+      <c r="AI24" s="35">
+        <v>314</v>
+      </c>
+      <c r="AJ24" s="35">
+        <v>315</v>
+      </c>
+      <c r="AK24" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="14">
+        <v>2024</v>
+      </c>
+      <c r="AM24" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN24" s="14">
+        <v>4</v>
+      </c>
+      <c r="AO24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="14"/>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>23</v>
       </c>
@@ -7816,8 +8872,75 @@
       <c r="S25" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>301</v>
+      </c>
+      <c r="U25" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="V25" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="W25" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="X25" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y25" s="36">
+        <v>44</v>
+      </c>
+      <c r="Z25" s="36">
+        <v>45</v>
+      </c>
+      <c r="AA25" s="35">
+        <v>46</v>
+      </c>
+      <c r="AB25" s="35">
+        <v>47</v>
+      </c>
+      <c r="AC25" s="35">
+        <v>48</v>
+      </c>
+      <c r="AD25" s="35">
+        <v>49</v>
+      </c>
+      <c r="AE25" s="35">
+        <v>410</v>
+      </c>
+      <c r="AF25" s="35">
+        <v>411</v>
+      </c>
+      <c r="AG25" s="35">
+        <v>412</v>
+      </c>
+      <c r="AH25" s="35">
+        <v>413</v>
+      </c>
+      <c r="AI25" s="35">
+        <v>414</v>
+      </c>
+      <c r="AJ25" s="35">
+        <v>415</v>
+      </c>
+      <c r="AK25" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="14">
+        <v>2024</v>
+      </c>
+      <c r="AM25" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN25" s="14">
+        <v>5</v>
+      </c>
+      <c r="AO25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="14"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>24</v>
       </c>
@@ -7839,8 +8962,75 @@
       <c r="S26" s="14">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" t="s">
+        <v>302</v>
+      </c>
+      <c r="U26" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="V26" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="W26" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="X26" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y26" s="36">
+        <v>54</v>
+      </c>
+      <c r="Z26" s="36">
+        <v>55</v>
+      </c>
+      <c r="AA26" s="35">
+        <v>56</v>
+      </c>
+      <c r="AB26" s="35">
+        <v>57</v>
+      </c>
+      <c r="AC26" s="35">
+        <v>58</v>
+      </c>
+      <c r="AD26" s="35">
+        <v>59</v>
+      </c>
+      <c r="AE26" s="35">
+        <v>510</v>
+      </c>
+      <c r="AF26" s="35">
+        <v>511</v>
+      </c>
+      <c r="AG26" s="35">
+        <v>512</v>
+      </c>
+      <c r="AH26" s="35">
+        <v>513</v>
+      </c>
+      <c r="AI26" s="35">
+        <v>514</v>
+      </c>
+      <c r="AJ26" s="35">
+        <v>515</v>
+      </c>
+      <c r="AK26" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="14">
+        <v>2024</v>
+      </c>
+      <c r="AM26" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN26" s="14">
+        <v>6</v>
+      </c>
+      <c r="AO26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="14"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>25</v>
       </c>
@@ -7862,8 +9052,75 @@
       <c r="S27" s="14">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" t="s">
+        <v>303</v>
+      </c>
+      <c r="U27" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="V27" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="W27" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="X27" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y27" s="36">
+        <v>64</v>
+      </c>
+      <c r="Z27" s="36">
+        <v>65</v>
+      </c>
+      <c r="AA27" s="35">
+        <v>66</v>
+      </c>
+      <c r="AB27" s="35">
+        <v>67</v>
+      </c>
+      <c r="AC27" s="35">
+        <v>68</v>
+      </c>
+      <c r="AD27" s="35">
+        <v>69</v>
+      </c>
+      <c r="AE27" s="35">
+        <v>610</v>
+      </c>
+      <c r="AF27" s="35">
+        <v>611</v>
+      </c>
+      <c r="AG27" s="35">
+        <v>612</v>
+      </c>
+      <c r="AH27" s="35">
+        <v>613</v>
+      </c>
+      <c r="AI27" s="35">
+        <v>614</v>
+      </c>
+      <c r="AJ27" s="35">
+        <v>615</v>
+      </c>
+      <c r="AK27" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="14">
+        <v>2024</v>
+      </c>
+      <c r="AM27" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN27" s="14">
+        <v>7</v>
+      </c>
+      <c r="AO27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="14"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>26</v>
       </c>
@@ -7885,8 +9142,75 @@
       <c r="S28" s="14">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" t="s">
+        <v>304</v>
+      </c>
+      <c r="U28" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="V28" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="W28" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="X28" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y28" s="36">
+        <v>74</v>
+      </c>
+      <c r="Z28" s="36">
+        <v>75</v>
+      </c>
+      <c r="AA28" s="35">
+        <v>76</v>
+      </c>
+      <c r="AB28" s="35">
+        <v>77</v>
+      </c>
+      <c r="AC28" s="35">
+        <v>78</v>
+      </c>
+      <c r="AD28" s="35">
+        <v>79</v>
+      </c>
+      <c r="AE28" s="35">
+        <v>710</v>
+      </c>
+      <c r="AF28" s="35">
+        <v>711</v>
+      </c>
+      <c r="AG28" s="35">
+        <v>712</v>
+      </c>
+      <c r="AH28" s="35">
+        <v>713</v>
+      </c>
+      <c r="AI28" s="35">
+        <v>714</v>
+      </c>
+      <c r="AJ28" s="35">
+        <v>715</v>
+      </c>
+      <c r="AK28" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="14">
+        <v>2024</v>
+      </c>
+      <c r="AM28" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN28" s="14">
+        <v>8</v>
+      </c>
+      <c r="AO28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="14"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>27</v>
       </c>
@@ -7908,8 +9232,75 @@
       <c r="S29" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>305</v>
+      </c>
+      <c r="U29" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="V29" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="W29" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="X29" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y29" s="36">
+        <v>84</v>
+      </c>
+      <c r="Z29" s="36">
+        <v>85</v>
+      </c>
+      <c r="AA29" s="35">
+        <v>86</v>
+      </c>
+      <c r="AB29" s="35">
+        <v>87</v>
+      </c>
+      <c r="AC29" s="35">
+        <v>88</v>
+      </c>
+      <c r="AD29" s="35">
+        <v>89</v>
+      </c>
+      <c r="AE29" s="35">
+        <v>810</v>
+      </c>
+      <c r="AF29" s="35">
+        <v>811</v>
+      </c>
+      <c r="AG29" s="35">
+        <v>812</v>
+      </c>
+      <c r="AH29" s="35">
+        <v>813</v>
+      </c>
+      <c r="AI29" s="35">
+        <v>814</v>
+      </c>
+      <c r="AJ29" s="35">
+        <v>815</v>
+      </c>
+      <c r="AK29" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="14">
+        <v>2024</v>
+      </c>
+      <c r="AM29" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN29" s="14">
+        <v>9</v>
+      </c>
+      <c r="AO29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="14"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>28</v>
       </c>
@@ -7931,8 +9322,75 @@
       <c r="S30" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" t="s">
+        <v>306</v>
+      </c>
+      <c r="U30" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="V30" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="W30" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="X30" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y30" s="36">
+        <v>94</v>
+      </c>
+      <c r="Z30" s="36">
+        <v>95</v>
+      </c>
+      <c r="AA30" s="35">
+        <v>96</v>
+      </c>
+      <c r="AB30" s="35">
+        <v>97</v>
+      </c>
+      <c r="AC30" s="35">
+        <v>98</v>
+      </c>
+      <c r="AD30" s="35">
+        <v>99</v>
+      </c>
+      <c r="AE30" s="35">
+        <v>910</v>
+      </c>
+      <c r="AF30" s="35">
+        <v>911</v>
+      </c>
+      <c r="AG30" s="35">
+        <v>912</v>
+      </c>
+      <c r="AH30" s="35">
+        <v>913</v>
+      </c>
+      <c r="AI30" s="35">
+        <v>914</v>
+      </c>
+      <c r="AJ30" s="35">
+        <v>915</v>
+      </c>
+      <c r="AK30" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="14">
+        <v>2024</v>
+      </c>
+      <c r="AM30" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN30" s="14">
+        <v>10</v>
+      </c>
+      <c r="AO30" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="14"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>29</v>
       </c>
@@ -7954,8 +9412,75 @@
       <c r="S31" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" t="s">
+        <v>307</v>
+      </c>
+      <c r="U31" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="V31" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="W31" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="X31" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y31" s="36">
+        <v>104</v>
+      </c>
+      <c r="Z31" s="36">
+        <v>105</v>
+      </c>
+      <c r="AA31" s="35">
+        <v>106</v>
+      </c>
+      <c r="AB31" s="35">
+        <v>107</v>
+      </c>
+      <c r="AC31" s="35">
+        <v>108</v>
+      </c>
+      <c r="AD31" s="35">
+        <v>109</v>
+      </c>
+      <c r="AE31" s="35">
+        <v>1010</v>
+      </c>
+      <c r="AF31" s="35">
+        <v>1011</v>
+      </c>
+      <c r="AG31" s="35">
+        <v>1012</v>
+      </c>
+      <c r="AH31" s="35">
+        <v>1013</v>
+      </c>
+      <c r="AI31" s="35">
+        <v>1014</v>
+      </c>
+      <c r="AJ31" s="35">
+        <v>1015</v>
+      </c>
+      <c r="AK31" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL31" s="14">
+        <v>2024</v>
+      </c>
+      <c r="AM31" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN31" s="14">
+        <v>11</v>
+      </c>
+      <c r="AO31" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="14"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>30</v>
       </c>
@@ -7977,8 +9502,75 @@
       <c r="S32" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>308</v>
+      </c>
+      <c r="U32" s="36">
+        <v>110</v>
+      </c>
+      <c r="V32" s="36">
+        <v>111</v>
+      </c>
+      <c r="W32" s="36">
+        <v>112</v>
+      </c>
+      <c r="X32" s="36">
+        <v>113</v>
+      </c>
+      <c r="Y32" s="36">
+        <v>114</v>
+      </c>
+      <c r="Z32" s="36">
+        <v>115</v>
+      </c>
+      <c r="AA32" s="35">
+        <v>116</v>
+      </c>
+      <c r="AB32" s="35">
+        <v>117</v>
+      </c>
+      <c r="AC32" s="35">
+        <v>118</v>
+      </c>
+      <c r="AD32" s="35">
+        <v>119</v>
+      </c>
+      <c r="AE32" s="35">
+        <v>1110</v>
+      </c>
+      <c r="AF32" s="35">
+        <v>1111</v>
+      </c>
+      <c r="AG32" s="35">
+        <v>1112</v>
+      </c>
+      <c r="AH32" s="35">
+        <v>1113</v>
+      </c>
+      <c r="AI32" s="35">
+        <v>1114</v>
+      </c>
+      <c r="AJ32" s="35">
+        <v>1115</v>
+      </c>
+      <c r="AK32" s="14">
+        <v>2</v>
+      </c>
+      <c r="AL32" s="14">
+        <v>2024</v>
+      </c>
+      <c r="AM32" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="AN32" s="14">
+        <v>12</v>
+      </c>
+      <c r="AO32" s="14">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="14"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>31</v>
       </c>
@@ -8000,8 +9592,30 @@
       <c r="S33" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="38"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>32</v>
       </c>
@@ -8023,8 +9637,21 @@
       <c r="S34" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U34" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB34" s="48" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE34" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="AF34" s="50"/>
+      <c r="AJ34" s="50" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>33</v>
       </c>
@@ -8046,8 +9673,44 @@
       <c r="S35" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="42">
+        <v>1</v>
+      </c>
+      <c r="U35" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z35" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="46">
+        <v>16</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE35" s="35">
+        <v>27</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI35" s="35">
+        <v>37</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>493</v>
+      </c>
+      <c r="AL35" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="AM35" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>34</v>
       </c>
@@ -8069,8 +9732,44 @@
       <c r="S36" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="42">
+        <v>2</v>
+      </c>
+      <c r="U36" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z36" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="46">
+        <v>17</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE36" s="35">
+        <v>28</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>486</v>
+      </c>
+      <c r="AI36" s="35">
+        <v>38</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>494</v>
+      </c>
+      <c r="AL36" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="AM36" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>35</v>
       </c>
@@ -8092,8 +9791,44 @@
       <c r="S37" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="42">
+        <v>3</v>
+      </c>
+      <c r="U37" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z37" s="14">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="46">
+        <v>18</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE37" s="35">
+        <v>29</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI37" s="35">
+        <v>38</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>495</v>
+      </c>
+      <c r="AL37" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="AM37" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>36</v>
       </c>
@@ -8115,8 +9850,44 @@
       <c r="S38" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="42">
+        <v>4</v>
+      </c>
+      <c r="U38" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>4</v>
+      </c>
+      <c r="AA38" s="46">
+        <v>19</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE38" s="35">
+        <v>30</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>488</v>
+      </c>
+      <c r="AI38" s="35">
+        <v>40</v>
+      </c>
+      <c r="AJ38" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL38" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="AM38" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>37</v>
       </c>
@@ -8138,8 +9909,38 @@
       <c r="S39" s="14">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="42">
+        <v>5</v>
+      </c>
+      <c r="U39" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z39" s="14">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="46">
+        <v>20</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>474</v>
+      </c>
+      <c r="AE39" s="35">
+        <v>31</v>
+      </c>
+      <c r="AF39" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL39" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM39" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>38</v>
       </c>
@@ -8161,8 +9962,30 @@
       <c r="S40" s="14">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="42">
+        <v>6</v>
+      </c>
+      <c r="U40" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>6</v>
+      </c>
+      <c r="AA40" s="47">
+        <v>21</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE40" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="AF40" s="50"/>
+      <c r="AJ40" s="50" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>39</v>
       </c>
@@ -8184,8 +10007,35 @@
       <c r="S41" s="14">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="42">
+        <v>7</v>
+      </c>
+      <c r="U41" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z41" s="14">
+        <v>7</v>
+      </c>
+      <c r="AA41" s="47">
+        <v>22</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE41" s="35">
+        <v>32</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>480</v>
+      </c>
+      <c r="AI41" s="51">
+        <v>41</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>40</v>
       </c>
@@ -8207,8 +10057,35 @@
       <c r="S42" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="42">
+        <v>8</v>
+      </c>
+      <c r="U42" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z42" s="14">
+        <v>8</v>
+      </c>
+      <c r="AA42" s="47">
+        <v>23</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE42" s="35">
+        <v>33</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI42" s="51">
+        <v>42</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>41</v>
       </c>
@@ -8230,8 +10107,29 @@
       <c r="S43" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="42">
+        <v>9</v>
+      </c>
+      <c r="U43" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>9</v>
+      </c>
+      <c r="AA43" s="47">
+        <v>24</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE43" s="35">
+        <v>34</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>42</v>
       </c>
@@ -8253,8 +10151,29 @@
       <c r="S44" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="42">
+        <v>10</v>
+      </c>
+      <c r="U44" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z44" s="14">
+        <v>10</v>
+      </c>
+      <c r="AA44" s="47">
+        <v>25</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE44" s="35">
+        <v>35</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>43</v>
       </c>
@@ -8276,8 +10195,29 @@
       <c r="S45" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="42">
+        <v>11</v>
+      </c>
+      <c r="U45" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z45" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA45" s="42">
+        <v>26</v>
+      </c>
+      <c r="AB45" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE45" s="35">
+        <v>36</v>
+      </c>
+      <c r="AF45" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>44</v>
       </c>
@@ -8299,8 +10239,15 @@
       <c r="S46" s="14">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="42">
+        <v>12</v>
+      </c>
+      <c r="U46" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA46" s="14"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>45</v>
       </c>
@@ -8322,8 +10269,14 @@
       <c r="S47" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="42">
+        <v>13</v>
+      </c>
+      <c r="U47" s="26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>46</v>
       </c>
@@ -8345,8 +10298,14 @@
       <c r="S48" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="42">
+        <v>14</v>
+      </c>
+      <c r="U48" s="26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>47</v>
       </c>
@@ -8368,8 +10327,14 @@
       <c r="S49" s="14">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="42">
+        <v>15</v>
+      </c>
+      <c r="U49" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>48</v>
       </c>
@@ -8391,8 +10356,11 @@
       <c r="S50" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U50" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>49</v>
       </c>
@@ -8414,8 +10382,11 @@
       <c r="S51" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U51" s="45" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>50</v>
       </c>
@@ -8438,7 +10409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>51</v>
       </c>
@@ -8461,7 +10432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>52</v>
       </c>
@@ -8493,8 +10464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9447,9 +11418,11 @@
       <c r="E42" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="F42" s="20"/>
+      <c r="F42" s="21" t="s">
+        <v>292</v>
+      </c>
       <c r="G42" s="21" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>49</v>
@@ -11248,7 +13221,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tablas_sistema.xlsx
+++ b/tablas_sistema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dtax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09351153-94F5-4691-A1E6-88F07929C05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC258BF-C953-4812-895E-8B849798292B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="503">
   <si>
     <t>Structure for</t>
   </si>
@@ -2243,7 +2243,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2347,7 +2347,6 @@
     <xf numFmtId="0" fontId="27" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="17" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7495,8 +7494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046B3F70-AF4F-4F89-A5C8-9E1487C489FC}">
   <dimension ref="A2:AP54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA28" workbookViewId="0">
-      <selection activeCell="AL39" sqref="AL39"/>
+    <sheetView tabSelected="1" topLeftCell="T16" workbookViewId="0">
+      <selection activeCell="AC47" sqref="AC47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9812,8 +9811,8 @@
       <c r="AF37" t="s">
         <v>487</v>
       </c>
-      <c r="AI37" s="35">
-        <v>38</v>
+      <c r="AI37" s="35" t="s">
+        <v>492</v>
       </c>
       <c r="AJ37" t="s">
         <v>495</v>
@@ -10028,7 +10027,7 @@
       <c r="AF41" t="s">
         <v>480</v>
       </c>
-      <c r="AI41" s="51">
+      <c r="AI41" s="35">
         <v>41</v>
       </c>
       <c r="AJ41" t="s">
@@ -10078,7 +10077,7 @@
       <c r="AF42" t="s">
         <v>481</v>
       </c>
-      <c r="AI42" s="51">
+      <c r="AI42" s="35">
         <v>42</v>
       </c>
       <c r="AJ42" t="s">
